--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I846"/>
+  <dimension ref="A1:I847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29990,6 +29990,41 @@
         <v>133800</v>
       </c>
     </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E847" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F847" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G847" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H847" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I847" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I847"/>
+  <dimension ref="A1:I848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30025,6 +30025,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E848" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F848" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G848" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H848" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I848" t="n">
+        <v>18900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I848"/>
+  <dimension ref="A1:I849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30060,6 +30060,41 @@
         <v>18900</v>
       </c>
     </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E849" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F849" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G849" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H849" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I849" t="n">
+        <v>428800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I849"/>
+  <dimension ref="A1:I850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30095,6 +30095,41 @@
         <v>428800</v>
       </c>
     </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E850" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F850" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G850" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H850" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I850" t="n">
+        <v>92600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I850"/>
+  <dimension ref="A1:I851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30130,6 +30130,41 @@
         <v>92600</v>
       </c>
     </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E851" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F851" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G851" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H851" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I851" t="n">
+        <v>933600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I851"/>
+  <dimension ref="A1:I852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30165,6 +30165,41 @@
         <v>933600</v>
       </c>
     </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E852" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F852" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G852" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H852" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I852" t="n">
+        <v>1047400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I852"/>
+  <dimension ref="A1:I853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30200,6 +30200,41 @@
         <v>1047400</v>
       </c>
     </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E853" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F853" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G853" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H853" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I853" t="n">
+        <v>196600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I853"/>
+  <dimension ref="A1:I854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30235,6 +30235,41 @@
         <v>196600</v>
       </c>
     </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E854" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F854" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G854" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H854" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I854" t="n">
+        <v>306400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I854"/>
+  <dimension ref="A1:I855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30270,6 +30270,41 @@
         <v>306400</v>
       </c>
     </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E855" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F855" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G855" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H855" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I855" t="n">
+        <v>55700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I855"/>
+  <dimension ref="A1:I856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30305,6 +30305,41 @@
         <v>55700</v>
       </c>
     </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E856" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F856" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G856" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H856" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I856" t="n">
+        <v>1444700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I856"/>
+  <dimension ref="A1:I857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30340,6 +30340,41 @@
         <v>1444700</v>
       </c>
     </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E857" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F857" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G857" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H857" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I857" t="n">
+        <v>2003000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I857"/>
+  <dimension ref="A1:I858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30375,6 +30375,41 @@
         <v>2003000</v>
       </c>
     </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E858" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F858" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G858" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H858" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I858" t="n">
+        <v>1474500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I858"/>
+  <dimension ref="A1:I860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30410,6 +30410,76 @@
         <v>1474500</v>
       </c>
     </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E859" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F859" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G859" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H859" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I859" t="n">
+        <v>876300</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E860" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F860" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G860" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H860" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I860" t="n">
+        <v>221100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I860"/>
+  <dimension ref="A1:I862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30480,6 +30480,76 @@
         <v>221100</v>
       </c>
     </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E861" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F861" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G861" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H861" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I861" t="n">
+        <v>395500</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E862" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F862" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G862" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H862" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I862" t="n">
+        <v>1508300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I862"/>
+  <dimension ref="A1:I863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30550,6 +30550,41 @@
         <v>1508300</v>
       </c>
     </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E863" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F863" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G863" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H863" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I863" t="n">
+        <v>149300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I863"/>
+  <dimension ref="A1:I864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30585,6 +30585,41 @@
         <v>149300</v>
       </c>
     </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E864" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F864" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G864" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H864" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I864" t="n">
+        <v>158000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I864"/>
+  <dimension ref="A1:I865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30620,6 +30620,41 @@
         <v>158000</v>
       </c>
     </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E865" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F865" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G865" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H865" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I865" t="n">
+        <v>241700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I865"/>
+  <dimension ref="A1:I866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30655,6 +30655,41 @@
         <v>241700</v>
       </c>
     </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E866" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F866" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G866" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H866" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I866" t="n">
+        <v>956900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I866"/>
+  <dimension ref="A1:I868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30690,6 +30690,76 @@
         <v>956900</v>
       </c>
     </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E867" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F867" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G867" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H867" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I867" t="n">
+        <v>308900</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E868" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F868" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G868" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H868" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I868" t="n">
+        <v>95800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I868"/>
+  <dimension ref="A1:I869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30760,6 +30760,41 @@
         <v>95800</v>
       </c>
     </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E869" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F869" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G869" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H869" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I869" t="n">
+        <v>1328200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I869"/>
+  <dimension ref="A1:I870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30795,6 +30795,41 @@
         <v>1328200</v>
       </c>
     </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E870" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F870" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G870" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H870" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I870" t="n">
+        <v>640600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I870"/>
+  <dimension ref="A1:I879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28277,11 +28277,11 @@
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -28295,28 +28295,28 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>0.795</v>
+        <v>0.84</v>
       </c>
       <c r="F798" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="G798" t="n">
-        <v>0.795</v>
+        <v>0.825</v>
       </c>
       <c r="H798" t="n">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="I798" t="n">
-        <v>350300</v>
+        <v>145100</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -28330,28 +28330,28 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>0.805</v>
+        <v>0.83</v>
       </c>
       <c r="F799" t="n">
-        <v>0.805</v>
+        <v>0.845</v>
       </c>
       <c r="G799" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="H799" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="I799" t="n">
-        <v>65200</v>
+        <v>544400</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -28365,28 +28365,28 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>0.805</v>
+        <v>0.83</v>
       </c>
       <c r="F800" t="n">
         <v>0.84</v>
       </c>
       <c r="G800" t="n">
-        <v>0.805</v>
+        <v>0.82</v>
       </c>
       <c r="H800" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="I800" t="n">
-        <v>228300</v>
+        <v>335800</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -28400,28 +28400,28 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="F801" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="G801" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.795</v>
       </c>
       <c r="H801" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.805</v>
       </c>
       <c r="I801" t="n">
-        <v>322700</v>
+        <v>692300</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -28435,28 +28435,28 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F802" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.805</v>
       </c>
       <c r="G802" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.785</v>
       </c>
       <c r="H802" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I802" t="n">
-        <v>98300</v>
+        <v>594600</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -28470,28 +28470,28 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>0.805</v>
+        <v>0.8</v>
       </c>
       <c r="F803" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="G803" t="n">
-        <v>0.8</v>
+        <v>0.775</v>
       </c>
       <c r="H803" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.775</v>
       </c>
       <c r="I803" t="n">
-        <v>58500</v>
+        <v>732600</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -28505,28 +28505,28 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.785</v>
       </c>
       <c r="F804" t="n">
-        <v>0.84</v>
+        <v>0.795</v>
       </c>
       <c r="G804" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="H804" t="n">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="I804" t="n">
-        <v>775100</v>
+        <v>225900</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -28540,28 +28540,28 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>0.835</v>
+        <v>0.78</v>
       </c>
       <c r="F805" t="n">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="G805" t="n">
-        <v>0.82</v>
+        <v>0.775</v>
       </c>
       <c r="H805" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="I805" t="n">
-        <v>401800</v>
+        <v>1045600</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -28575,28 +28575,28 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F806" t="n">
-        <v>0.83</v>
+        <v>0.795</v>
       </c>
       <c r="G806" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="H806" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.795</v>
       </c>
       <c r="I806" t="n">
-        <v>78300</v>
+        <v>127200</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -28610,28 +28610,28 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.795</v>
       </c>
       <c r="F807" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="G807" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H807" t="n">
         <v>0.8</v>
       </c>
-      <c r="H807" t="n">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="I807" t="n">
-        <v>251700</v>
+        <v>350300</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -28645,28 +28645,28 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.805</v>
       </c>
       <c r="F808" t="n">
-        <v>0.855</v>
+        <v>0.805</v>
       </c>
       <c r="G808" t="n">
         <v>0.8</v>
       </c>
       <c r="H808" t="n">
-        <v>0.835</v>
+        <v>0.8</v>
       </c>
       <c r="I808" t="n">
-        <v>1803400</v>
+        <v>65200</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -28680,28 +28680,28 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>0.84</v>
+        <v>0.805</v>
       </c>
       <c r="F809" t="n">
         <v>0.84</v>
       </c>
       <c r="G809" t="n">
-        <v>0.825</v>
+        <v>0.805</v>
       </c>
       <c r="H809" t="n">
-        <v>0.825</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I809" t="n">
-        <v>329900</v>
+        <v>228300</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -28715,28 +28715,28 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>0.825</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F810" t="n">
-        <v>0.825</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G810" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="H810" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I810" t="n">
-        <v>178600</v>
+        <v>322700</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -28750,28 +28750,28 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>0.825</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F811" t="n">
-        <v>0.895</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G811" t="n">
-        <v>0.825</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H811" t="n">
-        <v>0.86</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I811" t="n">
-        <v>6691400</v>
+        <v>98300</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -28785,28 +28785,28 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>0.855</v>
+        <v>0.805</v>
       </c>
       <c r="F812" t="n">
-        <v>0.86</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G812" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="H812" t="n">
-        <v>0.845</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I812" t="n">
-        <v>375600</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -28820,28 +28820,28 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>0.835</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F813" t="n">
-        <v>0.845</v>
+        <v>0.84</v>
       </c>
       <c r="G813" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H813" t="n">
-        <v>0.845</v>
+        <v>0.84</v>
       </c>
       <c r="I813" t="n">
-        <v>172200</v>
+        <v>775100</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -28855,28 +28855,28 @@
         </is>
       </c>
       <c r="E814" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F814" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G814" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H814" t="n">
         <v>0.83</v>
       </c>
-      <c r="F814" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G814" t="n">
-        <v>0.825</v>
-      </c>
-      <c r="H814" t="n">
-        <v>0.85</v>
-      </c>
       <c r="I814" t="n">
-        <v>454700</v>
+        <v>401800</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -28890,28 +28890,28 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F815" t="n">
-        <v>0.855</v>
+        <v>0.83</v>
       </c>
       <c r="G815" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H815" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I815" t="n">
-        <v>283800</v>
+        <v>78300</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -28925,28 +28925,28 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>0.86</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F816" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G816" t="n">
-        <v>0.855</v>
+        <v>0.8</v>
       </c>
       <c r="H816" t="n">
-        <v>0.865</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I816" t="n">
-        <v>363100</v>
+        <v>251700</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -28960,28 +28960,28 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>0.865</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F817" t="n">
-        <v>0.865</v>
+        <v>0.855</v>
       </c>
       <c r="G817" t="n">
-        <v>0.855</v>
+        <v>0.8</v>
       </c>
       <c r="H817" t="n">
-        <v>0.865</v>
+        <v>0.835</v>
       </c>
       <c r="I817" t="n">
-        <v>208600</v>
+        <v>1803400</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -28995,28 +28995,28 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>0.865</v>
+        <v>0.84</v>
       </c>
       <c r="F818" t="n">
-        <v>0.865</v>
+        <v>0.84</v>
       </c>
       <c r="G818" t="n">
-        <v>0.835</v>
+        <v>0.825</v>
       </c>
       <c r="H818" t="n">
-        <v>0.845</v>
+        <v>0.825</v>
       </c>
       <c r="I818" t="n">
-        <v>446200</v>
+        <v>329900</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -29030,28 +29030,28 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>0.835</v>
+        <v>0.825</v>
       </c>
       <c r="F819" t="n">
-        <v>0.85</v>
+        <v>0.825</v>
       </c>
       <c r="G819" t="n">
-        <v>0.835</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H819" t="n">
-        <v>0.845</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="I819" t="n">
-        <v>240900</v>
+        <v>178600</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -29065,28 +29065,28 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>0.84</v>
+        <v>0.825</v>
       </c>
       <c r="F820" t="n">
-        <v>0.845</v>
+        <v>0.895</v>
       </c>
       <c r="G820" t="n">
-        <v>0.84</v>
+        <v>0.825</v>
       </c>
       <c r="H820" t="n">
-        <v>0.845</v>
+        <v>0.86</v>
       </c>
       <c r="I820" t="n">
-        <v>169200</v>
+        <v>6691400</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -29100,28 +29100,28 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>0.85</v>
+        <v>0.855</v>
       </c>
       <c r="F821" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="G821" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="H821" t="n">
-        <v>0.85</v>
+        <v>0.845</v>
       </c>
       <c r="I821" t="n">
-        <v>456400</v>
+        <v>375600</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -29135,28 +29135,28 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>0.84</v>
+        <v>0.835</v>
       </c>
       <c r="F822" t="n">
-        <v>0.84</v>
+        <v>0.845</v>
       </c>
       <c r="G822" t="n">
         <v>0.83</v>
       </c>
       <c r="H822" t="n">
-        <v>0.835</v>
+        <v>0.845</v>
       </c>
       <c r="I822" t="n">
-        <v>72700</v>
+        <v>172200</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -29170,28 +29170,28 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F823" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="G823" t="n">
         <v>0.825</v>
       </c>
       <c r="H823" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="I823" t="n">
-        <v>134800</v>
+        <v>454700</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -29205,28 +29205,28 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="F824" t="n">
-        <v>0.82</v>
+        <v>0.855</v>
       </c>
       <c r="G824" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="H824" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I824" t="n">
-        <v>337600</v>
+        <v>283800</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -29240,28 +29240,28 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F825" t="n">
-        <v>0.845</v>
+        <v>0.87</v>
       </c>
       <c r="G825" t="n">
-        <v>0.82</v>
+        <v>0.855</v>
       </c>
       <c r="H825" t="n">
-        <v>0.835</v>
+        <v>0.865</v>
       </c>
       <c r="I825" t="n">
-        <v>63900</v>
+        <v>363100</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -29275,28 +29275,28 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>0.84</v>
+        <v>0.865</v>
       </c>
       <c r="F826" t="n">
-        <v>0.84</v>
+        <v>0.865</v>
       </c>
       <c r="G826" t="n">
-        <v>0.82</v>
+        <v>0.855</v>
       </c>
       <c r="H826" t="n">
-        <v>0.82</v>
+        <v>0.865</v>
       </c>
       <c r="I826" t="n">
-        <v>32500</v>
+        <v>208600</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -29310,28 +29310,28 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>0.82</v>
+        <v>0.865</v>
       </c>
       <c r="F827" t="n">
-        <v>0.82</v>
+        <v>0.865</v>
       </c>
       <c r="G827" t="n">
-        <v>0.805</v>
+        <v>0.835</v>
       </c>
       <c r="H827" t="n">
-        <v>0.805</v>
+        <v>0.845</v>
       </c>
       <c r="I827" t="n">
-        <v>133000</v>
+        <v>446200</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -29345,28 +29345,28 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>0.805</v>
+        <v>0.835</v>
       </c>
       <c r="F828" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="G828" t="n">
-        <v>0.805</v>
+        <v>0.835</v>
       </c>
       <c r="H828" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.845</v>
       </c>
       <c r="I828" t="n">
-        <v>60000</v>
+        <v>240900</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -29380,28 +29380,28 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="F829" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.845</v>
       </c>
       <c r="G829" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="H829" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.845</v>
       </c>
       <c r="I829" t="n">
-        <v>22000</v>
+        <v>169200</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -29415,28 +29415,28 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F830" t="n">
-        <v>0.825</v>
+        <v>0.87</v>
       </c>
       <c r="G830" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="H830" t="n">
-        <v>0.825</v>
+        <v>0.85</v>
       </c>
       <c r="I830" t="n">
-        <v>45000</v>
+        <v>456400</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -29450,28 +29450,28 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>0.825</v>
+        <v>0.84</v>
       </c>
       <c r="F831" t="n">
-        <v>0.825</v>
+        <v>0.84</v>
       </c>
       <c r="G831" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="H831" t="n">
-        <v>0.82</v>
+        <v>0.835</v>
       </c>
       <c r="I831" t="n">
-        <v>67600</v>
+        <v>72700</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -29485,28 +29485,28 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="F832" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="G832" t="n">
-        <v>0.82</v>
+        <v>0.825</v>
       </c>
       <c r="H832" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="I832" t="n">
-        <v>45700</v>
+        <v>134800</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -29520,10 +29520,10 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="F833" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="G833" t="n">
         <v>0.8100000000000001</v>
@@ -29532,16 +29532,16 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="I833" t="n">
-        <v>77800</v>
+        <v>337600</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -29555,28 +29555,28 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="F834" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.845</v>
       </c>
       <c r="G834" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="H834" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.835</v>
       </c>
       <c r="I834" t="n">
-        <v>97200</v>
+        <v>63900</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -29590,28 +29590,28 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="F835" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="G835" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="H835" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="I835" t="n">
-        <v>48500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -29625,28 +29625,28 @@
         </is>
       </c>
       <c r="E836" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F836" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G836" t="n">
         <v>0.805</v>
       </c>
-      <c r="F836" t="n">
+      <c r="H836" t="n">
         <v>0.805</v>
       </c>
-      <c r="G836" t="n">
-        <v>0.795</v>
-      </c>
-      <c r="H836" t="n">
-        <v>0.8</v>
-      </c>
       <c r="I836" t="n">
-        <v>67800</v>
+        <v>133000</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -29663,25 +29663,25 @@
         <v>0.805</v>
       </c>
       <c r="F837" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G837" t="n">
         <v>0.805</v>
       </c>
-      <c r="G837" t="n">
-        <v>0.76</v>
-      </c>
       <c r="H837" t="n">
-        <v>0.765</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I837" t="n">
-        <v>1173300</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -29695,28 +29695,28 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>0.775</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F838" t="n">
-        <v>0.785</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G838" t="n">
-        <v>0.775</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H838" t="n">
-        <v>0.785</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I838" t="n">
-        <v>62500</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -29730,28 +29730,28 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>0.785</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F839" t="n">
-        <v>0.805</v>
+        <v>0.825</v>
       </c>
       <c r="G839" t="n">
-        <v>0.78</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H839" t="n">
-        <v>0.795</v>
+        <v>0.825</v>
       </c>
       <c r="I839" t="n">
-        <v>584000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -29765,28 +29765,28 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>0.78</v>
+        <v>0.825</v>
       </c>
       <c r="F840" t="n">
-        <v>0.79</v>
+        <v>0.825</v>
       </c>
       <c r="G840" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H840" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="I840" t="n">
-        <v>661700</v>
+        <v>67600</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -29800,28 +29800,28 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="F841" t="n">
-        <v>0.775</v>
+        <v>0.82</v>
       </c>
       <c r="G841" t="n">
-        <v>0.755</v>
+        <v>0.82</v>
       </c>
       <c r="H841" t="n">
-        <v>0.775</v>
+        <v>0.82</v>
       </c>
       <c r="I841" t="n">
-        <v>464200</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -29835,28 +29835,28 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>0.77</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F842" t="n">
-        <v>0.785</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G842" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H842" t="n">
-        <v>0.785</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="I842" t="n">
-        <v>150500</v>
+        <v>77800</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -29870,28 +29870,28 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F843" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G843" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H843" t="n">
-        <v>0.785</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I843" t="n">
-        <v>260600</v>
+        <v>97200</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -29905,28 +29905,28 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F844" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G844" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H844" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I844" t="n">
-        <v>40000</v>
+        <v>48500</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -29940,28 +29940,28 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.805</v>
       </c>
       <c r="F845" t="n">
-        <v>0.82</v>
+        <v>0.805</v>
       </c>
       <c r="G845" t="n">
-        <v>0.775</v>
+        <v>0.795</v>
       </c>
       <c r="H845" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="I845" t="n">
-        <v>66500</v>
+        <v>67800</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -29975,28 +29975,28 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>0.82</v>
+        <v>0.805</v>
       </c>
       <c r="F846" t="n">
-        <v>0.82</v>
+        <v>0.805</v>
       </c>
       <c r="G846" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="H846" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.765</v>
       </c>
       <c r="I846" t="n">
-        <v>133800</v>
+        <v>1173300</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -30010,28 +30010,28 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>0.8</v>
+        <v>0.775</v>
       </c>
       <c r="F847" t="n">
-        <v>0.8</v>
+        <v>0.785</v>
       </c>
       <c r="G847" t="n">
-        <v>0.8</v>
+        <v>0.775</v>
       </c>
       <c r="H847" t="n">
-        <v>0.8</v>
+        <v>0.785</v>
       </c>
       <c r="I847" t="n">
-        <v>5000</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -30045,28 +30045,28 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>0.8</v>
+        <v>0.785</v>
       </c>
       <c r="F848" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="G848" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="H848" t="n">
-        <v>0.79</v>
+        <v>0.795</v>
       </c>
       <c r="I848" t="n">
-        <v>18900</v>
+        <v>584000</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -30080,28 +30080,28 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="F849" t="n">
-        <v>0.835</v>
+        <v>0.79</v>
       </c>
       <c r="G849" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="H849" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="I849" t="n">
-        <v>428800</v>
+        <v>661700</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -30115,28 +30115,28 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="F850" t="n">
-        <v>0.83</v>
+        <v>0.775</v>
       </c>
       <c r="G850" t="n">
-        <v>0.805</v>
+        <v>0.755</v>
       </c>
       <c r="H850" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.775</v>
       </c>
       <c r="I850" t="n">
-        <v>92600</v>
+        <v>464200</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -30150,28 +30150,28 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="F851" t="n">
-        <v>0.84</v>
+        <v>0.785</v>
       </c>
       <c r="G851" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="H851" t="n">
-        <v>0.84</v>
+        <v>0.785</v>
       </c>
       <c r="I851" t="n">
-        <v>933600</v>
+        <v>150500</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -30185,28 +30185,28 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>0.835</v>
+        <v>0.8</v>
       </c>
       <c r="F852" t="n">
-        <v>0.855</v>
+        <v>0.8</v>
       </c>
       <c r="G852" t="n">
-        <v>0.835</v>
+        <v>0.78</v>
       </c>
       <c r="H852" t="n">
-        <v>0.845</v>
+        <v>0.785</v>
       </c>
       <c r="I852" t="n">
-        <v>1047400</v>
+        <v>260600</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>0.845</v>
+        <v>0.78</v>
       </c>
       <c r="F853" t="n">
-        <v>0.845</v>
+        <v>0.78</v>
       </c>
       <c r="G853" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="H853" t="n">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="I853" t="n">
-        <v>196600</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -30255,28 +30255,28 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>0.835</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F854" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="G854" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.775</v>
       </c>
       <c r="H854" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="I854" t="n">
-        <v>306400</v>
+        <v>66500</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -30290,28 +30290,28 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="F855" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="G855" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="H855" t="n">
-        <v>0.825</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I855" t="n">
-        <v>55700</v>
+        <v>133800</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -30325,28 +30325,28 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F856" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="G856" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="H856" t="n">
         <v>0.8</v>
       </c>
       <c r="I856" t="n">
-        <v>1444700</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -30360,28 +30360,28 @@
         </is>
       </c>
       <c r="E857" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F857" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G857" t="n">
         <v>0.79</v>
       </c>
-      <c r="F857" t="n">
+      <c r="H857" t="n">
         <v>0.79</v>
       </c>
-      <c r="G857" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H857" t="n">
-        <v>0.77</v>
-      </c>
       <c r="I857" t="n">
-        <v>2003000</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -30395,28 +30395,28 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="F858" t="n">
-        <v>0.77</v>
+        <v>0.835</v>
       </c>
       <c r="G858" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="H858" t="n">
-        <v>0.735</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="I858" t="n">
-        <v>1474500</v>
+        <v>428800</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -30430,28 +30430,28 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>0.735</v>
+        <v>0.83</v>
       </c>
       <c r="F859" t="n">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="G859" t="n">
-        <v>0.71</v>
+        <v>0.805</v>
       </c>
       <c r="H859" t="n">
-        <v>0.73</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="I859" t="n">
-        <v>876300</v>
+        <v>92600</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -30465,28 +30465,28 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>0.73</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F860" t="n">
-        <v>0.73</v>
+        <v>0.84</v>
       </c>
       <c r="G860" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H860" t="n">
-        <v>0.705</v>
+        <v>0.84</v>
       </c>
       <c r="I860" t="n">
-        <v>221100</v>
+        <v>933600</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -30500,28 +30500,28 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>0.725</v>
+        <v>0.835</v>
       </c>
       <c r="F861" t="n">
-        <v>0.725</v>
+        <v>0.855</v>
       </c>
       <c r="G861" t="n">
-        <v>0.655</v>
+        <v>0.835</v>
       </c>
       <c r="H861" t="n">
-        <v>0.66</v>
+        <v>0.845</v>
       </c>
       <c r="I861" t="n">
-        <v>395500</v>
+        <v>1047400</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -30535,28 +30535,28 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.845</v>
       </c>
       <c r="F862" t="n">
-        <v>0.695</v>
+        <v>0.845</v>
       </c>
       <c r="G862" t="n">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="H862" t="n">
-        <v>0.68</v>
+        <v>0.84</v>
       </c>
       <c r="I862" t="n">
-        <v>1508300</v>
+        <v>196600</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -30570,28 +30570,28 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.835</v>
       </c>
       <c r="F863" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="G863" t="n">
-        <v>0.66</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H863" t="n">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="I863" t="n">
-        <v>149300</v>
+        <v>306400</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -30605,28 +30605,28 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>0.665</v>
+        <v>0.84</v>
       </c>
       <c r="F864" t="n">
-        <v>0.68</v>
+        <v>0.84</v>
       </c>
       <c r="G864" t="n">
-        <v>0.66</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H864" t="n">
-        <v>0.68</v>
+        <v>0.825</v>
       </c>
       <c r="I864" t="n">
-        <v>158000</v>
+        <v>55700</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -30640,28 +30640,28 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F865" t="n">
-        <v>0.675</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G865" t="n">
-        <v>0.625</v>
+        <v>0.78</v>
       </c>
       <c r="H865" t="n">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="I865" t="n">
-        <v>241700</v>
+        <v>1444700</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -30675,28 +30675,28 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>0.625</v>
+        <v>0.79</v>
       </c>
       <c r="F866" t="n">
-        <v>0.625</v>
+        <v>0.79</v>
       </c>
       <c r="G866" t="n">
-        <v>0.58</v>
+        <v>0.75</v>
       </c>
       <c r="H866" t="n">
-        <v>0.605</v>
+        <v>0.77</v>
       </c>
       <c r="I866" t="n">
-        <v>956900</v>
+        <v>2003000</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -30710,28 +30710,28 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="F867" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="G867" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="H867" t="n">
-        <v>0.6</v>
+        <v>0.735</v>
       </c>
       <c r="I867" t="n">
-        <v>308900</v>
+        <v>1474500</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -30745,28 +30745,28 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>0.6</v>
+        <v>0.735</v>
       </c>
       <c r="F868" t="n">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="G868" t="n">
-        <v>0.585</v>
+        <v>0.71</v>
       </c>
       <c r="H868" t="n">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="I868" t="n">
-        <v>95800</v>
+        <v>876300</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -30780,53 +30780,368 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>0.58</v>
+        <v>0.73</v>
       </c>
       <c r="F869" t="n">
-        <v>0.58</v>
+        <v>0.73</v>
       </c>
       <c r="G869" t="n">
-        <v>0.52</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H869" t="n">
-        <v>0.52</v>
+        <v>0.705</v>
       </c>
       <c r="I869" t="n">
-        <v>1328200</v>
+        <v>221100</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E870" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F870" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G870" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H870" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I870" t="n">
+        <v>395500</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E871" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F871" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G871" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H871" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I871" t="n">
+        <v>1508300</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E872" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F872" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G872" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H872" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I872" t="n">
+        <v>149300</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E873" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F873" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G873" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H873" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I873" t="n">
+        <v>158000</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E874" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F874" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G874" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H874" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I874" t="n">
+        <v>241700</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E875" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F875" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G875" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H875" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I875" t="n">
+        <v>956900</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E876" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F876" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G876" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H876" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I876" t="n">
+        <v>308900</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E877" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F877" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G877" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H877" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I877" t="n">
+        <v>95800</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E878" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F878" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G878" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H878" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I878" t="n">
+        <v>1328200</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B870" t="inlineStr">
+      <c r="B879" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C870" t="inlineStr">
-        <is>
-          <t>0185</t>
-        </is>
-      </c>
-      <c r="D870" t="inlineStr">
-        <is>
-          <t>HSSEB</t>
-        </is>
-      </c>
-      <c r="E870" t="n">
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E879" t="n">
         <v>0.485</v>
       </c>
-      <c r="F870" t="n">
+      <c r="F879" t="n">
         <v>0.485</v>
       </c>
-      <c r="G870" t="n">
+      <c r="G879" t="n">
         <v>0.43</v>
       </c>
-      <c r="H870" t="n">
+      <c r="H879" t="n">
         <v>0.435</v>
       </c>
-      <c r="I870" t="n">
+      <c r="I879" t="n">
         <v>640600</v>
       </c>
     </row>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I879"/>
+  <dimension ref="A1:I880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31145,6 +31145,41 @@
         <v>640600</v>
       </c>
     </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E880" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F880" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G880" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H880" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I880" t="n">
+        <v>513800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I880"/>
+  <dimension ref="A1:I881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31180,6 +31180,41 @@
         <v>513800</v>
       </c>
     </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E881" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F881" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G881" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H881" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I881" t="n">
+        <v>723900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I881"/>
+  <dimension ref="A1:I882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31215,6 +31215,41 @@
         <v>723900</v>
       </c>
     </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E882" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F882" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G882" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H882" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I882" t="n">
+        <v>1096600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I882"/>
+  <dimension ref="A1:I883"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31250,6 +31250,41 @@
         <v>1096600</v>
       </c>
     </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E883" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F883" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G883" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H883" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I883" t="n">
+        <v>859200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I883"/>
+  <dimension ref="A1:I884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31285,6 +31285,41 @@
         <v>859200</v>
       </c>
     </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E884" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F884" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G884" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H884" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I884" t="n">
+        <v>2148800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I884"/>
+  <dimension ref="A1:I885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31320,6 +31320,41 @@
         <v>2148800</v>
       </c>
     </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E885" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F885" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G885" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H885" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I885" t="n">
+        <v>1018300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I885"/>
+  <dimension ref="A1:I886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31355,6 +31355,41 @@
         <v>1018300</v>
       </c>
     </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E886" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F886" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G886" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H886" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I886" t="n">
+        <v>294000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I886"/>
+  <dimension ref="A1:I887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31390,6 +31390,41 @@
         <v>294000</v>
       </c>
     </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E887" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F887" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G887" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H887" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I887" t="n">
+        <v>665000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I887"/>
+  <dimension ref="A1:I888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31425,6 +31425,41 @@
         <v>665000</v>
       </c>
     </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E888" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F888" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G888" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H888" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I888" t="n">
+        <v>384600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I888"/>
+  <dimension ref="A1:I889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31460,6 +31460,41 @@
         <v>384600</v>
       </c>
     </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E889" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F889" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G889" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H889" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I889" t="n">
+        <v>3150900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I889"/>
+  <dimension ref="A1:I890"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31495,6 +31495,41 @@
         <v>3150900</v>
       </c>
     </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E890" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F890" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G890" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H890" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I890" t="n">
+        <v>909400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I890"/>
+  <dimension ref="A1:I891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31530,6 +31530,41 @@
         <v>909400</v>
       </c>
     </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E891" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F891" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G891" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H891" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I891" t="n">
+        <v>805300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I891"/>
+  <dimension ref="A1:I892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31565,6 +31565,41 @@
         <v>805300</v>
       </c>
     </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E892" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F892" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G892" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H892" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I892" t="n">
+        <v>1458400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I892"/>
+  <dimension ref="A1:I893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31600,6 +31600,41 @@
         <v>1458400</v>
       </c>
     </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E893" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F893" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G893" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H893" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I893" t="n">
+        <v>502700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I893"/>
+  <dimension ref="A1:I894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31635,6 +31635,41 @@
         <v>502700</v>
       </c>
     </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E894" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F894" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G894" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H894" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I894" t="n">
+        <v>365800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I894"/>
+  <dimension ref="A1:I895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31670,6 +31670,41 @@
         <v>365800</v>
       </c>
     </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E895" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F895" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G895" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H895" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I895" t="n">
+        <v>757400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I895"/>
+  <dimension ref="A1:I896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31705,6 +31705,41 @@
         <v>757400</v>
       </c>
     </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E896" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F896" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G896" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H896" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I896" t="n">
+        <v>1347400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I896"/>
+  <dimension ref="A1:I897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31740,6 +31740,41 @@
         <v>1347400</v>
       </c>
     </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E897" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F897" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G897" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H897" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I897" t="n">
+        <v>1396000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I897"/>
+  <dimension ref="A1:I898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31775,6 +31775,41 @@
         <v>1396000</v>
       </c>
     </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E898" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F898" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G898" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H898" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I898" t="n">
+        <v>968600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I898"/>
+  <dimension ref="A1:I899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31810,6 +31810,41 @@
         <v>968600</v>
       </c>
     </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E899" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F899" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G899" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H899" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I899" t="n">
+        <v>300300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I899"/>
+  <dimension ref="A1:I900"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31845,6 +31845,41 @@
         <v>300300</v>
       </c>
     </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E900" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F900" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G900" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H900" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I900" t="n">
+        <v>289800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I900"/>
+  <dimension ref="A1:I901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31880,6 +31880,41 @@
         <v>289800</v>
       </c>
     </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E901" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F901" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G901" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H901" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I901" t="n">
+        <v>481800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I901"/>
+  <dimension ref="A1:I902"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31915,6 +31915,41 @@
         <v>481800</v>
       </c>
     </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E902" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F902" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G902" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H902" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I902" t="n">
+        <v>737800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I902"/>
+  <dimension ref="A1:I903"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31950,6 +31950,41 @@
         <v>737800</v>
       </c>
     </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E903" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F903" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G903" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H903" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I903" t="n">
+        <v>275700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I903"/>
+  <dimension ref="A1:I904"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31985,6 +31985,41 @@
         <v>275700</v>
       </c>
     </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E904" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F904" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G904" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H904" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I904" t="n">
+        <v>720000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I904"/>
+  <dimension ref="A1:I906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32020,6 +32020,76 @@
         <v>720000</v>
       </c>
     </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E905" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F905" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G905" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H905" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I905" t="n">
+        <v>2260700</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E906" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F906" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G906" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H906" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I906" t="n">
+        <v>631300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I906"/>
+  <dimension ref="A1:I907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32090,6 +32090,41 @@
         <v>631300</v>
       </c>
     </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E907" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F907" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G907" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H907" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I907" t="n">
+        <v>356300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I907"/>
+  <dimension ref="A1:I910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32125,6 +32125,111 @@
         <v>356300</v>
       </c>
     </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E908" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F908" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G908" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H908" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I908" t="n">
+        <v>513300</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E909" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F909" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G909" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H909" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I909" t="n">
+        <v>346800</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E910" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F910" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G910" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H910" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I910" t="n">
+        <v>4369700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I910"/>
+  <dimension ref="A1:I911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32230,6 +32230,41 @@
         <v>4369700</v>
       </c>
     </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E911" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F911" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G911" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H911" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I911" t="n">
+        <v>3333000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I911"/>
+  <dimension ref="A1:I912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32265,6 +32265,41 @@
         <v>3333000</v>
       </c>
     </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E912" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F912" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G912" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H912" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I912" t="n">
+        <v>1210200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0185.xlsx
+++ b/data/0185.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I912"/>
+  <dimension ref="A1:I915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32300,6 +32300,111 @@
         <v>1210200</v>
       </c>
     </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E913" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F913" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G913" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H913" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I913" t="n">
+        <v>560300</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E914" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F914" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G914" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H914" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I914" t="n">
+        <v>903300</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>0185</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>HSSEB</t>
+        </is>
+      </c>
+      <c r="E915" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F915" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G915" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H915" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I915" t="n">
+        <v>2129100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
